--- a/Medições das plantas das hortas.xlsx
+++ b/Medições das plantas das hortas.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDUARDOPEREIRADEPINH\Downloads\Medições - Professor Paulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A668F45-C715-413E-927E-18284BD3B17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42179C9B-3C80-4B84-AD65-B725E1FA0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85782E98-4175-442A-877C-B2C98FA91F0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{85782E98-4175-442A-877C-B2C98FA91F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Amostra 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Amostra 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Amostra 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Amostra 4" sheetId="6" r:id="rId6"/>
+    <sheet name="Amostra 5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
   <si>
     <t>Horta Horizontal</t>
   </si>
@@ -59,6 +65,72 @@
   </si>
   <si>
     <t>Am.</t>
+  </si>
+  <si>
+    <t>Amostra 1</t>
+  </si>
+  <si>
+    <t>Horta Horizontal - Alface Roxa</t>
+  </si>
+  <si>
+    <t>Amostra 2</t>
+  </si>
+  <si>
+    <t>Amostra 3</t>
+  </si>
+  <si>
+    <t>Amostra 5</t>
+  </si>
+  <si>
+    <t>Amostra 4</t>
+  </si>
+  <si>
+    <t>Horta Vertical - Alface Roxa</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Altura 1</t>
+  </si>
+  <si>
+    <t>Largura 1</t>
+  </si>
+  <si>
+    <t>Altura 2</t>
+  </si>
+  <si>
+    <t>Largura 2</t>
+  </si>
+  <si>
+    <t>Altura 3</t>
+  </si>
+  <si>
+    <t>Largura 3</t>
+  </si>
+  <si>
+    <t>Altura 4</t>
+  </si>
+  <si>
+    <t>Largura 4</t>
+  </si>
+  <si>
+    <t>Altura 5</t>
+  </si>
+  <si>
+    <t>Largura 5</t>
+  </si>
+  <si>
+    <t>Altura H</t>
+  </si>
+  <si>
+    <t>Largura H</t>
+  </si>
+  <si>
+    <t>Altura V</t>
+  </si>
+  <si>
+    <t>Largura V</t>
   </si>
 </sst>
 </file>
@@ -95,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -155,25 +227,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +315,21 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,10 +339,28 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94FE5B-1C6E-4766-89CF-414BE9DBFB40}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,360 +702,360 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="O4" s="8" t="s">
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="O4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="9"/>
+      <c r="P4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
         <v>45028</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="J5" s="3">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="I5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M5" s="11">
         <v>45035</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="P5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2">
         <v>7</v>
       </c>
-      <c r="R5" s="3">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
         <v>9</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="12">
         <v>45042</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.5</v>
       </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>3.5</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="H6" s="8">
+      <c r="F6" s="11"/>
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
         <v>7.5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>3.3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>5.7</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="O6" s="8">
+      <c r="M6" s="11"/>
+      <c r="O6" s="5">
         <v>2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>7</v>
       </c>
-      <c r="Q6" s="3">
-        <v>5</v>
-      </c>
-      <c r="R6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="S6" s="2">
         <v>8.5</v>
       </c>
-      <c r="T6" s="11"/>
+      <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="8">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="E7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K7" s="2">
         <v>3.2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>5.2</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="O7" s="8">
-        <v>3</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="M7" s="11"/>
+      <c r="O7" s="5">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
         <v>6.5</v>
       </c>
-      <c r="Q7" s="3">
-        <v>6</v>
-      </c>
-      <c r="R7" s="3">
-        <v>6</v>
-      </c>
-      <c r="S7" s="3">
-        <v>4</v>
-      </c>
-      <c r="T7" s="11"/>
+      <c r="Q7" s="2">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>6</v>
+      </c>
+      <c r="S7" s="2">
+        <v>4</v>
+      </c>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>2.5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="H8" s="8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="F8" s="11"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
         <v>3.8</v>
       </c>
-      <c r="J8" s="3">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2">
         <v>5.4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>7.8</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="O8" s="8">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="M8" s="11"/>
+      <c r="O8" s="5">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2">
         <v>7</v>
       </c>
-      <c r="Q8" s="3">
-        <v>5</v>
-      </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="11"/>
+      <c r="Q8" s="2">
+        <v>5</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="8">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="F9" s="11"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
         <v>4.3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>7.1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>2.8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>4.3</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="O9" s="8">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="M9" s="11"/>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
         <v>7.5</v>
       </c>
-      <c r="Q9" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="12"/>
+      <c r="Q9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -907,368 +1069,368 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="O11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
+      <c r="L12" s="10"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="7"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="8" t="s">
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="O13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" s="9"/>
+      <c r="P13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11">
         <v>45028</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J14" s="4">
         <v>6.5</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>7</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>10</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="11">
         <v>45035</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="5">
         <v>1</v>
       </c>
-      <c r="P14" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6</v>
-      </c>
-      <c r="R14" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="P14" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="T14" s="11">
         <v>45042</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="H15" s="7">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="H15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J15" s="4">
         <v>6.5</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <v>6.5</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <v>8.5</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="O15" s="8">
+      <c r="M15" s="10"/>
+      <c r="O15" s="5">
         <v>2</v>
       </c>
-      <c r="P15" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="2">
         <v>7.5</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="2">
         <v>3.3</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="2">
         <v>5.7</v>
       </c>
-      <c r="T15" s="6"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="F16" s="10"/>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
         <v>4.2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4">
         <v>4.3</v>
       </c>
-      <c r="K16" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L16" s="4">
         <v>9.5</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="O16" s="8">
-        <v>3</v>
-      </c>
-      <c r="P16" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="R16" s="3">
+      <c r="M16" s="10"/>
+      <c r="O16" s="5">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="R16" s="2">
         <v>3.2</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <v>5.2</v>
       </c>
-      <c r="T16" s="6"/>
+      <c r="T16" s="11"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4">
         <v>7.5</v>
       </c>
-      <c r="K17" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L17" s="4">
         <v>8</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="O17" s="8">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="M17" s="10"/>
+      <c r="O17" s="5">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2">
         <v>3.8</v>
       </c>
-      <c r="Q17" s="3">
-        <v>6</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="Q17" s="2">
+        <v>6</v>
+      </c>
+      <c r="R17" s="2">
         <v>5.4</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="2">
         <v>7.8</v>
       </c>
-      <c r="T17" s="6"/>
+      <c r="T17" s="11"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4">
         <v>8</v>
       </c>
-      <c r="K18" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="O18" s="8">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="M18" s="10"/>
+      <c r="O18" s="5">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
         <v>4.3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <v>7.1</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="2">
         <v>2.8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="2">
         <v>4.3</v>
       </c>
-      <c r="T18" s="6"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1279,110 +1441,110 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="I22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="4">
+      <c r="I23" s="10">
         <v>7</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10">
         <v>2.5</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6">
+      <c r="L23" s="10"/>
+      <c r="M23" s="11">
         <v>45035</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="4">
+      <c r="I24" s="10">
         <v>7</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
         <v>3.5</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10">
+        <v>5</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4">
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="10">
+        <v>5</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="10">
+        <v>6</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
+        <v>3</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -1390,29 +1552,29 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T14:T18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M14:M18"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T5:T9"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M14:M18"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="F5:F9"/>
@@ -1429,4 +1591,797 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEFC4E-84B7-4578-88C2-B16F4B984A4B}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="25" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45028</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45028</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2">
+        <v>6</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45035</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="U5" s="2">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45042</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>45042</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>6</v>
+      </c>
+      <c r="U6" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8683A4C6-A898-4D5B-9448-688FDE988F19}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECB6650-2ABD-45CF-9DD1-12090B3F10BB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6B09A-26E7-4460-8B11-D6770BEC3709}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE64DDA7-C6E4-4178-8D5C-8E5DF0194266}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229ED58F-BE8F-442A-A8E3-ED258BDC97AB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Medições das plantas das hortas.xlsx
+++ b/Medições das plantas das hortas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDUARDOPEREIRADEPINH\Downloads\Medições - Professor Paulo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokir.DESKTOP-USG5DCL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42179C9B-3C80-4B84-AD65-B725E1FA0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB931C6-B214-44A5-A624-1C4091ED852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{85782E98-4175-442A-877C-B2C98FA91F0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{85782E98-4175-442A-877C-B2C98FA91F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="44">
   <si>
     <t>Horta Horizontal</t>
   </si>
@@ -132,6 +132,45 @@
   <si>
     <t>Largura V</t>
   </si>
+  <si>
+    <t>Horta Isopor - Controle</t>
+  </si>
+  <si>
+    <t>Horta Horizontal - Rucula</t>
+  </si>
+  <si>
+    <t>Horta Vertical - Rucula</t>
+  </si>
+  <si>
+    <t>Altura Controle</t>
+  </si>
+  <si>
+    <t>Largura Controle</t>
+  </si>
+  <si>
+    <t>Alface/Data</t>
+  </si>
+  <si>
+    <t>Rucula/Data</t>
+  </si>
+  <si>
+    <t>Altura Controle R</t>
+  </si>
+  <si>
+    <t>Largura Controle R</t>
+  </si>
+  <si>
+    <t>Altura H R</t>
+  </si>
+  <si>
+    <t>Largura H R</t>
+  </si>
+  <si>
+    <t>Altura V R</t>
+  </si>
+  <si>
+    <t>Largura V R</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +202,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +372,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,6 +393,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,16 +411,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -677,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94FE5B-1C6E-4766-89CF-414BE9DBFB40}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C9"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +756,7 @@
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -701,65 +764,155 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="V2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AC2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AJ2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AQ2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AX2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="2"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="11"/>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3" s="2"/>
+      <c r="W3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="2"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -808,8 +961,88 @@
         <v>4</v>
       </c>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AC4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AJ4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="3"/>
+      <c r="AQ4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV4" s="3"/>
+      <c r="AX4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC4" s="3"/>
+    </row>
+    <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -825,7 +1058,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>45028</v>
       </c>
       <c r="H5" s="5">
@@ -843,7 +1076,7 @@
       <c r="L5" s="2">
         <v>5.5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>45035</v>
       </c>
       <c r="O5" s="5">
@@ -861,11 +1094,101 @@
       <c r="S5" s="2">
         <v>9</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="13">
         <v>45042</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>8</v>
+      </c>
+      <c r="X5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>45049</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>45061</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>45063</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>11</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>26</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>28</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>45075</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>12</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>15</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>14</v>
+      </c>
+      <c r="BC5" s="12">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -881,7 +1204,7 @@
       <c r="E6" s="2">
         <v>3.5</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="H6" s="5">
         <v>2</v>
       </c>
@@ -897,7 +1220,7 @@
       <c r="L6" s="2">
         <v>5.7</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="O6" s="5">
         <v>2</v>
       </c>
@@ -913,9 +1236,89 @@
       <c r="S6" s="2">
         <v>8.5</v>
       </c>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="14"/>
+      <c r="V6" s="2">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>7</v>
+      </c>
+      <c r="X6" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AC6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>17</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>24</v>
+      </c>
+      <c r="AH6" s="12"/>
+      <c r="AJ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO6" s="12"/>
+      <c r="AQ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>18</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>16</v>
+      </c>
+      <c r="AV6" s="12"/>
+      <c r="AX6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>12</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>19</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>16</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>15</v>
+      </c>
+      <c r="BC6" s="12"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -931,7 +1334,7 @@
       <c r="E7" s="2">
         <v>4.5</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="H7" s="5">
         <v>3</v>
       </c>
@@ -947,7 +1350,7 @@
       <c r="L7" s="2">
         <v>5.2</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="12"/>
       <c r="O7" s="5">
         <v>3</v>
       </c>
@@ -963,9 +1366,89 @@
       <c r="S7" s="2">
         <v>4</v>
       </c>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" s="14"/>
+      <c r="V7" s="2">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>7</v>
+      </c>
+      <c r="X7" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="12"/>
+      <c r="AC7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="12"/>
+      <c r="AJ7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO7" s="12"/>
+      <c r="AQ7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>12</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>14</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>18</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="12"/>
+      <c r="AX7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>11</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="12"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -981,7 +1464,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="H8" s="5">
         <v>4</v>
       </c>
@@ -997,7 +1480,7 @@
       <c r="L8" s="2">
         <v>7.8</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="12"/>
       <c r="O8" s="5">
         <v>4</v>
       </c>
@@ -1009,9 +1492,69 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="14"/>
+      <c r="V8" s="2">
+        <v>4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>7</v>
+      </c>
+      <c r="X8" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="12"/>
+      <c r="AC8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="12"/>
+      <c r="AJ8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="12"/>
+      <c r="AQ8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>13</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>13</v>
+      </c>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="12"/>
+      <c r="AX8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>18</v>
+      </c>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="12"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1027,7 +1570,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
@@ -1043,7 +1586,7 @@
       <c r="L9" s="2">
         <v>4.3</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="12"/>
       <c r="O9" s="5">
         <v>5</v>
       </c>
@@ -1055,9 +1598,69 @@
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="15"/>
+      <c r="V9" s="2">
+        <v>5</v>
+      </c>
+      <c r="W9" s="2">
+        <v>6</v>
+      </c>
+      <c r="X9" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="12"/>
+      <c r="AC9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="12"/>
+      <c r="AJ9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="12"/>
+      <c r="AQ9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>16</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>14</v>
+      </c>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="12"/>
+      <c r="AX9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>11</v>
+      </c>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="12"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1068,65 +1671,155 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="O11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="V11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AC11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AJ11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AQ11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AX11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10" t="s">
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="10"/>
+      <c r="S12" s="11"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V12" s="4"/>
+      <c r="W12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="4"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1175,8 +1868,88 @@
         <v>4</v>
       </c>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="6"/>
+      <c r="AC13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="6"/>
+      <c r="AJ13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="6"/>
+      <c r="AQ13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="6"/>
+      <c r="AX13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC13" s="6"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1192,7 +1965,7 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>45028</v>
       </c>
       <c r="H14" s="4">
@@ -1210,7 +1983,7 @@
       <c r="L14" s="4">
         <v>10</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="12">
         <v>45035</v>
       </c>
       <c r="O14" s="5">
@@ -1228,11 +2001,101 @@
       <c r="S14" s="2">
         <v>5.5</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="12">
         <v>45042</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <v>10</v>
+      </c>
+      <c r="X14" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>45049</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>45061</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>45063</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>18</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>45075</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>16</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>24</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>22</v>
+      </c>
+      <c r="BC14" s="12">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1248,7 +2111,7 @@
       <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="H15" s="4">
         <v>2</v>
       </c>
@@ -1264,7 +2127,7 @@
       <c r="L15" s="4">
         <v>8.5</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="11"/>
       <c r="O15" s="5">
         <v>2</v>
       </c>
@@ -1280,9 +2143,89 @@
       <c r="S15" s="2">
         <v>5.7</v>
       </c>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" s="12"/>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+      <c r="W15" s="2">
+        <v>8</v>
+      </c>
+      <c r="X15" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AA15" s="12"/>
+      <c r="AC15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="12"/>
+      <c r="AJ15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>8</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="12"/>
+      <c r="AQ15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>18</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV15" s="12"/>
+      <c r="AX15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>17</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>25</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>19</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="BC15" s="12"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -1298,7 +2241,7 @@
       <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
       <c r="H16" s="4">
         <v>3</v>
       </c>
@@ -1314,7 +2257,7 @@
       <c r="L16" s="4">
         <v>9.5</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="11"/>
       <c r="O16" s="5">
         <v>3</v>
       </c>
@@ -1330,9 +2273,89 @@
       <c r="S16" s="2">
         <v>5.2</v>
       </c>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" s="12"/>
+      <c r="V16" s="5">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="X16" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="12"/>
+      <c r="AC16" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AH16" s="12"/>
+      <c r="AJ16" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO16" s="12"/>
+      <c r="AQ16" s="5">
+        <v>3</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AV16" s="12"/>
+      <c r="AX16" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>16</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>21</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>18</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>17</v>
+      </c>
+      <c r="BC16" s="12"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -1348,7 +2371,7 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="11"/>
       <c r="H17" s="4">
         <v>4</v>
       </c>
@@ -1364,7 +2387,7 @@
       <c r="L17" s="4">
         <v>8</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="11"/>
       <c r="O17" s="5">
         <v>4</v>
       </c>
@@ -1380,9 +2403,89 @@
       <c r="S17" s="2">
         <v>7.8</v>
       </c>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="12"/>
+      <c r="V17" s="5">
+        <v>4</v>
+      </c>
+      <c r="W17" s="2">
+        <v>8</v>
+      </c>
+      <c r="X17" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="12"/>
+      <c r="AC17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH17" s="12"/>
+      <c r="AJ17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO17" s="12"/>
+      <c r="AQ17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AV17" s="12"/>
+      <c r="AX17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>30</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>26</v>
+      </c>
+      <c r="BC17" s="12"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -1398,7 +2501,7 @@
       <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
       <c r="H18" s="4">
         <v>5</v>
       </c>
@@ -1414,7 +2517,7 @@
       <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="11"/>
       <c r="O18" s="5">
         <v>5</v>
       </c>
@@ -1430,9 +2533,89 @@
       <c r="S18" s="2">
         <v>4.3</v>
       </c>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T18" s="12"/>
+      <c r="V18" s="5">
+        <v>5</v>
+      </c>
+      <c r="W18" s="2">
+        <v>9</v>
+      </c>
+      <c r="X18" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="12"/>
+      <c r="AC18" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH18" s="12"/>
+      <c r="AJ18" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO18" s="12"/>
+      <c r="AQ18" s="5">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="12"/>
+      <c r="AX18" s="5">
+        <v>5</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>17</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>28</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>30</v>
+      </c>
+      <c r="BC18" s="12"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1440,125 +2623,481 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H20" s="10" t="s">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="V20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AC20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AX20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H21" s="2"/>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V21" s="2"/>
+      <c r="W21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="2"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="10"/>
+      <c r="I22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="11"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="2"/>
+      <c r="AC22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="2"/>
+      <c r="AX22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="2"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="11">
         <v>7</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
         <v>2.5</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11">
+      <c r="L23" s="11"/>
+      <c r="M23" s="12">
         <v>45035</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="12">
+        <v>45049</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>13</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11">
+        <v>12</v>
+      </c>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="12">
+        <v>45061</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="12">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>7</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <v>3.5</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="V24" s="2">
+        <v>2</v>
+      </c>
+      <c r="W24" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AC24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>14</v>
+      </c>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11">
+        <v>16</v>
+      </c>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AX24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11">
+        <v>18</v>
+      </c>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="I25" s="10">
-        <v>5</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10">
+      <c r="I25" s="11">
+        <v>5</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="V25" s="2">
+        <v>3</v>
+      </c>
+      <c r="W25" s="11">
+        <v>11</v>
+      </c>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AC25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AX25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>21</v>
+      </c>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11">
+        <v>30</v>
+      </c>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <v>4</v>
       </c>
-      <c r="I26" s="10">
-        <v>5</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10">
+      <c r="I26" s="11">
+        <v>5</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11">
         <v>2</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="V26" s="2">
+        <v>4</v>
+      </c>
+      <c r="W26" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AC26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11">
+        <v>9</v>
+      </c>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AX26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY26" s="11">
+        <v>10</v>
+      </c>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11">
+        <v>16</v>
+      </c>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>6</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
-        <v>3</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
+        <v>3</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="V27" s="2">
+        <v>5</v>
+      </c>
+      <c r="W27" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AC27" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AX27" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY27" s="11">
+        <v>17</v>
+      </c>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11">
+        <v>23</v>
+      </c>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M14:M18"/>
+  <mergeCells count="124">
+    <mergeCell ref="AY22:AZ22"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="AY23:AZ23"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BC23:BC27"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="AY25:AZ25"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="AY26:AZ26"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="AY27:AZ27"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC14:BC18"/>
+    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="AY21:BB21"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC5:BC9"/>
+    <mergeCell ref="AX11:BC11"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV14:AV18"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV5:AV9"/>
+    <mergeCell ref="AQ11:AV11"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO14:AO18"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO5:AO9"/>
+    <mergeCell ref="AJ11:AO11"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AH27"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH5:AH9"/>
+    <mergeCell ref="AC11:AH11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH14:AH18"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA5:AA9"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="AA23:AA27"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -1575,18 +3114,17 @@
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T14:T18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M14:M18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1595,95 +3133,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEFC4E-84B7-4578-88C2-B16F4B984A4B}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="U16" sqref="U16:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="25" width="9.140625" style="1"/>
+    <col min="2" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="20" t="s">
+      <c r="B1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="15" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+    </row>
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="15" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="15" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="19"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +3289,7 @@
       <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1745,8 +3320,39 @@
       <c r="V3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="17"/>
+      <c r="X3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45028</v>
       </c>
@@ -1813,8 +3419,21 @@
       <c r="V4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="3">
+        <v>45028</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45035</v>
       </c>
@@ -1881,8 +3500,41 @@
       <c r="V5" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="3">
+        <v>45035</v>
+      </c>
+      <c r="X5" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45042</v>
       </c>
@@ -1949,9 +3601,1160 @@
       <c r="V6" s="2">
         <v>7.1</v>
       </c>
-    </row>
+      <c r="W6" s="3">
+        <v>45042</v>
+      </c>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>45049</v>
+      </c>
+      <c r="M7" s="2">
+        <v>13</v>
+      </c>
+      <c r="N7" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
+      <c r="S7" s="2">
+        <v>8</v>
+      </c>
+      <c r="T7" s="2">
+        <v>10</v>
+      </c>
+      <c r="U7" s="2">
+        <v>9</v>
+      </c>
+      <c r="V7" s="2">
+        <v>13</v>
+      </c>
+      <c r="W7" s="3">
+        <v>45049</v>
+      </c>
+      <c r="X7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45061</v>
+      </c>
+      <c r="M8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>17</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>14</v>
+      </c>
+      <c r="S8" s="2">
+        <v>14</v>
+      </c>
+      <c r="T8" s="2">
+        <v>19</v>
+      </c>
+      <c r="U8" s="2">
+        <v>10</v>
+      </c>
+      <c r="V8" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="W8" s="3">
+        <v>45061</v>
+      </c>
+      <c r="X8" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3">
+        <v>45063</v>
+      </c>
+      <c r="M9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>17</v>
+      </c>
+      <c r="O9" s="2">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>15</v>
+      </c>
+      <c r="U9" s="2">
+        <v>10</v>
+      </c>
+      <c r="V9" s="2">
+        <v>13</v>
+      </c>
+      <c r="W9" s="3">
+        <v>45063</v>
+      </c>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45075</v>
+      </c>
+      <c r="B10" s="2">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45075</v>
+      </c>
+      <c r="M10" s="2">
+        <v>18</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2">
+        <v>18</v>
+      </c>
+      <c r="P10" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>7</v>
+      </c>
+      <c r="U10" s="2">
+        <v>21</v>
+      </c>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="3">
+        <v>45075</v>
+      </c>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <v>45096</v>
+      </c>
+      <c r="M11" s="2">
+        <v>16</v>
+      </c>
+      <c r="N11" s="2">
+        <v>24</v>
+      </c>
+      <c r="O11" s="2">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>16</v>
+      </c>
+      <c r="R11" s="2">
+        <v>21</v>
+      </c>
+      <c r="S11" s="2">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2">
+        <v>30</v>
+      </c>
+      <c r="U11" s="2">
+        <v>17</v>
+      </c>
+      <c r="V11" s="2">
+        <v>28</v>
+      </c>
+      <c r="W11" s="3">
+        <v>45096</v>
+      </c>
+      <c r="X11" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>17</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45028</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>45028</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <v>4</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R16" s="2">
+        <v>8</v>
+      </c>
+      <c r="S16" s="2">
+        <v>5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>4</v>
+      </c>
+      <c r="U16" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="V16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>45035</v>
+      </c>
+      <c r="M17" s="2">
+        <v>7</v>
+      </c>
+      <c r="N17" s="2">
+        <v>10</v>
+      </c>
+      <c r="O17" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="T17" s="2">
+        <v>8</v>
+      </c>
+      <c r="U17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45042</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="3">
+        <v>45042</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="T18" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="U18" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="V18" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="3">
+        <v>45049</v>
+      </c>
+      <c r="M19" s="2">
+        <v>8</v>
+      </c>
+      <c r="N19" s="2">
+        <v>12</v>
+      </c>
+      <c r="O19" s="2">
+        <v>9</v>
+      </c>
+      <c r="P19" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7</v>
+      </c>
+      <c r="R19" s="2">
+        <v>10</v>
+      </c>
+      <c r="S19" s="2">
+        <v>8</v>
+      </c>
+      <c r="T19" s="2">
+        <v>9</v>
+      </c>
+      <c r="U19" s="2">
+        <v>9</v>
+      </c>
+      <c r="V19" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>23</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="3">
+        <v>45061</v>
+      </c>
+      <c r="M20" s="2">
+        <v>10</v>
+      </c>
+      <c r="N20" s="2">
+        <v>12</v>
+      </c>
+      <c r="O20" s="2">
+        <v>13</v>
+      </c>
+      <c r="P20" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>13</v>
+      </c>
+      <c r="R20" s="2">
+        <v>14</v>
+      </c>
+      <c r="S20" s="2">
+        <v>14</v>
+      </c>
+      <c r="T20" s="2">
+        <v>20</v>
+      </c>
+      <c r="U20" s="2">
+        <v>12</v>
+      </c>
+      <c r="V20" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="3">
+        <v>45063</v>
+      </c>
+      <c r="M21" s="2">
+        <v>11</v>
+      </c>
+      <c r="N21" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>9</v>
+      </c>
+      <c r="P21" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>11</v>
+      </c>
+      <c r="R21" s="2">
+        <v>14</v>
+      </c>
+      <c r="S21" s="2">
+        <v>13</v>
+      </c>
+      <c r="T21" s="2">
+        <v>10</v>
+      </c>
+      <c r="U21" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="V21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>45075</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
+        <v>20</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="3">
+        <v>45075</v>
+      </c>
+      <c r="M22" s="2">
+        <v>10</v>
+      </c>
+      <c r="N22" s="2">
+        <v>10</v>
+      </c>
+      <c r="O22" s="2">
+        <v>9</v>
+      </c>
+      <c r="P22" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>12</v>
+      </c>
+      <c r="R22" s="2">
+        <v>12</v>
+      </c>
+      <c r="S22" s="2">
+        <v>14</v>
+      </c>
+      <c r="T22" s="2">
+        <v>12</v>
+      </c>
+      <c r="U22" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="V22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="3">
+        <v>45096</v>
+      </c>
+      <c r="M23" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2">
+        <v>19</v>
+      </c>
+      <c r="P23" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>18</v>
+      </c>
+      <c r="R23" s="2">
+        <v>17</v>
+      </c>
+      <c r="S23" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="T23" s="2">
+        <v>26</v>
+      </c>
+      <c r="U23" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="V23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+    </row>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="35">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="J2:K2"/>
@@ -1973,80 +4776,426 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8683A4C6-A898-4D5B-9448-688FDE988F19}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="H1" s="26"/>
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="24">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
         <v>4.5</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="24">
+        <v>7</v>
+      </c>
+      <c r="K2" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="2">
         <v>5.5</v>
       </c>
       <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G3" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="24">
         <v>7</v>
       </c>
+      <c r="C4" s="24">
+        <v>2.5</v>
+      </c>
       <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
         <v>5.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>6</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="24">
+        <v>7</v>
+      </c>
+      <c r="K4" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="24">
+        <v>13</v>
+      </c>
+      <c r="C7" s="24">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24">
+        <v>13</v>
+      </c>
+      <c r="K7" s="24">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>11</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <v>13</v>
+      </c>
+      <c r="C8" s="24">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>29</v>
+      </c>
+      <c r="J8" s="24">
+        <v>13</v>
+      </c>
+      <c r="K8" s="24">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2">
+        <v>14</v>
+      </c>
+      <c r="N9" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2056,80 +5205,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECB6650-2ABD-45CF-9DD1-12090B3F10BB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="24">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>2.5</v>
       </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="24">
+        <v>7</v>
+      </c>
+      <c r="K2" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
         <v>7.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>5.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="I3" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="24">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
+      <c r="C4" s="24">
+        <v>3.5</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
         <v>7.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="24">
+        <v>7</v>
+      </c>
+      <c r="K4" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>24</v>
+      </c>
+      <c r="N6" s="2">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="24">
+        <v>14</v>
+      </c>
+      <c r="C7" s="24">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24">
+        <v>14</v>
+      </c>
+      <c r="K7" s="24">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2">
+        <v>15</v>
+      </c>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
+        <v>9</v>
+      </c>
+      <c r="O7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <v>14</v>
+      </c>
+      <c r="C8" s="24">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29</v>
+      </c>
+      <c r="J8" s="24">
+        <v>14</v>
+      </c>
+      <c r="K8" s="24">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2">
+        <v>16</v>
+      </c>
+      <c r="N8" s="2">
+        <v>9</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -2139,80 +5624,416 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6B09A-26E7-4460-8B11-D6770BEC3709}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
       <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="24">
+        <v>5</v>
+      </c>
+      <c r="K2" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>19</v>
       </c>
       <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3" s="2">
         <v>4.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>5.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>4.2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="I3" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="24">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4" s="2">
         <v>6.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>4.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>5.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="24">
+        <v>5</v>
+      </c>
+      <c r="K4" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="24">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24">
+        <v>9</v>
+      </c>
+      <c r="K7" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
+        <v>11</v>
+      </c>
+      <c r="O7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29</v>
+      </c>
+      <c r="J8" s="24">
+        <v>9</v>
+      </c>
+      <c r="K8" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2">
+        <v>20</v>
+      </c>
+      <c r="N8" s="2">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>18</v>
+      </c>
+      <c r="O9" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2222,80 +6043,416 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE64DDA7-C6E4-4178-8D5C-8E5DF0194266}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>2.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="24">
+        <v>5</v>
+      </c>
+      <c r="K2" s="24">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>19</v>
       </c>
       <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>3.8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="I3" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="24">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
         <v>3.8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="24">
+        <v>5</v>
+      </c>
+      <c r="K4" s="24">
+        <v>2</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="24">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24">
+        <v>9</v>
+      </c>
+      <c r="K7" s="24">
+        <v>9</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>13</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29</v>
+      </c>
+      <c r="J8" s="24">
+        <v>9</v>
+      </c>
+      <c r="K8" s="24">
+        <v>9</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>14</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>16</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2305,80 +6462,416 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229ED58F-BE8F-442A-A8E3-ED258BDC97AB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="24">
+        <v>6</v>
+      </c>
+      <c r="C2" s="24">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
         <v>4.5</v>
       </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="24">
+        <v>6</v>
+      </c>
+      <c r="K2" s="24">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>19</v>
       </c>
       <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
         <v>4.3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>7.1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="I3" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="24">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
         <v>7.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>4.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>4.3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>7.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="24">
+        <v>6</v>
+      </c>
+      <c r="K4" s="24">
+        <v>3</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="C7" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="C8" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29</v>
+      </c>
+      <c r="J8" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="K8" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
+        <v>23</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Medições das plantas das hortas.xlsx
+++ b/Medições das plantas das hortas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokir.DESKTOP-USG5DCL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokir.DESKTOP-USG5DCL\Downloads\medicao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB931C6-B214-44A5-A624-1C4091ED852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F65732-4B13-4B02-966E-C2B34726BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{85782E98-4175-442A-877C-B2C98FA91F0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{85782E98-4175-442A-877C-B2C98FA91F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,14 +375,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,32 +408,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,6 +435,636 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>89342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7B6DDC-A797-9FC1-B566-8D50DD1D1905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="7772400" cy="3527867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5280-A28E-890E-EC56-5709158B9082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="4572000"/>
+          <a:ext cx="7267575" cy="3614493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13347</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD25FA8-0170-6515-E902-CD38D5538BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1790700"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449097</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC93275-6F70-0B34-975F-CC2A52344EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5874525" y="1816875"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165747</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB9BAC4-9B99-28BE-225E-ACF1E8FFE4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>77622</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0260A57-1396-0DF3-D2C2-92F926172E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5960250" y="1921650"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165747</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD64D80-44F9-4CCB-807E-B959CD2D4928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>178575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29997</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA1C02E-1B6A-0D3A-8FEC-FD36E123ADC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5912625" y="1893075"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165747</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E1D76F-29A7-73B2-A781-C5891EF54CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>315747</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0D8EB5-E37B-84B0-BED5-ACFAA05EBAB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6198375" y="1883550"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165747</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A202E8E8-5EF0-53D3-7E49-00CA8DA13D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>249072</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF93206-813C-F2B1-843C-41FAE154E6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6131700" y="1854975"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,151 +1389,151 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="V2" s="10" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="V2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AC2" s="10" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AC2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AJ2" s="10" t="s">
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AJ2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AQ2" s="10" t="s">
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AQ2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AX2" s="10" t="s">
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AX2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="2"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="4"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11" t="s">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11" t="s">
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="13"/>
       <c r="AH3" s="2"/>
       <c r="AJ3" s="2"/>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AN3" s="11"/>
+      <c r="AN3" s="13"/>
       <c r="AO3" s="2"/>
       <c r="AQ3" s="2"/>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11" t="s">
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AU3" s="11"/>
+      <c r="AU3" s="13"/>
       <c r="AV3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11" t="s">
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="11"/>
+      <c r="BB3" s="13"/>
       <c r="BC3" s="2"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -1058,7 +1682,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <v>45028</v>
       </c>
       <c r="H5" s="5">
@@ -1076,7 +1700,7 @@
       <c r="L5" s="2">
         <v>5.5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14">
         <v>45035</v>
       </c>
       <c r="O5" s="5">
@@ -1094,7 +1718,7 @@
       <c r="S5" s="2">
         <v>9</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="16">
         <v>45042</v>
       </c>
       <c r="V5" s="2">
@@ -1112,7 +1736,7 @@
       <c r="Z5" s="2">
         <v>15</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="14">
         <v>45049</v>
       </c>
       <c r="AC5" s="2">
@@ -1130,7 +1754,7 @@
       <c r="AG5" s="2">
         <v>16</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="14">
         <v>45061</v>
       </c>
       <c r="AJ5" s="2">
@@ -1148,7 +1772,7 @@
       <c r="AN5" s="2">
         <v>25</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AO5" s="14">
         <v>45063</v>
       </c>
       <c r="AQ5" s="2">
@@ -1166,7 +1790,7 @@
       <c r="AU5" s="2">
         <v>28</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV5" s="14">
         <v>45075</v>
       </c>
       <c r="AX5" s="2">
@@ -1184,7 +1808,7 @@
       <c r="BB5" s="2">
         <v>14</v>
       </c>
-      <c r="BC5" s="12">
+      <c r="BC5" s="14">
         <v>45096</v>
       </c>
     </row>
@@ -1204,7 +1828,7 @@
       <c r="E6" s="2">
         <v>3.5</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="14"/>
       <c r="H6" s="5">
         <v>2</v>
       </c>
@@ -1220,7 +1844,7 @@
       <c r="L6" s="2">
         <v>5.7</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="14"/>
       <c r="O6" s="5">
         <v>2</v>
       </c>
@@ -1236,7 +1860,7 @@
       <c r="S6" s="2">
         <v>8.5</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="T6" s="17"/>
       <c r="V6" s="2">
         <v>2</v>
       </c>
@@ -1252,7 +1876,7 @@
       <c r="Z6" s="2">
         <v>6</v>
       </c>
-      <c r="AA6" s="12"/>
+      <c r="AA6" s="14"/>
       <c r="AC6" s="2">
         <v>2</v>
       </c>
@@ -1268,7 +1892,7 @@
       <c r="AG6" s="2">
         <v>24</v>
       </c>
-      <c r="AH6" s="12"/>
+      <c r="AH6" s="14"/>
       <c r="AJ6" s="2">
         <v>2</v>
       </c>
@@ -1284,7 +1908,7 @@
       <c r="AN6" s="2">
         <v>20</v>
       </c>
-      <c r="AO6" s="12"/>
+      <c r="AO6" s="14"/>
       <c r="AQ6" s="2">
         <v>2</v>
       </c>
@@ -1300,7 +1924,7 @@
       <c r="AU6" s="2">
         <v>16</v>
       </c>
-      <c r="AV6" s="12"/>
+      <c r="AV6" s="14"/>
       <c r="AX6" s="2">
         <v>2</v>
       </c>
@@ -1316,7 +1940,7 @@
       <c r="BB6" s="2">
         <v>15</v>
       </c>
-      <c r="BC6" s="12"/>
+      <c r="BC6" s="14"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1334,7 +1958,7 @@
       <c r="E7" s="2">
         <v>4.5</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="14"/>
       <c r="H7" s="5">
         <v>3</v>
       </c>
@@ -1350,7 +1974,7 @@
       <c r="L7" s="2">
         <v>5.2</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="14"/>
       <c r="O7" s="5">
         <v>3</v>
       </c>
@@ -1366,7 +1990,7 @@
       <c r="S7" s="2">
         <v>4</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="17"/>
       <c r="V7" s="2">
         <v>3</v>
       </c>
@@ -1382,7 +2006,7 @@
       <c r="Z7" s="2">
         <v>8</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="14"/>
       <c r="AC7" s="2">
         <v>3</v>
       </c>
@@ -1398,7 +2022,7 @@
       <c r="AG7" s="2">
         <v>23</v>
       </c>
-      <c r="AH7" s="12"/>
+      <c r="AH7" s="14"/>
       <c r="AJ7" s="2">
         <v>3</v>
       </c>
@@ -1414,7 +2038,7 @@
       <c r="AN7" s="2">
         <v>20</v>
       </c>
-      <c r="AO7" s="12"/>
+      <c r="AO7" s="14"/>
       <c r="AQ7" s="2">
         <v>3</v>
       </c>
@@ -1430,7 +2054,7 @@
       <c r="AU7" s="2">
         <v>20</v>
       </c>
-      <c r="AV7" s="12"/>
+      <c r="AV7" s="14"/>
       <c r="AX7" s="2">
         <v>3</v>
       </c>
@@ -1446,7 +2070,7 @@
       <c r="BB7" s="2">
         <v>9</v>
       </c>
-      <c r="BC7" s="12"/>
+      <c r="BC7" s="14"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1464,7 +2088,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="14"/>
       <c r="H8" s="5">
         <v>4</v>
       </c>
@@ -1480,7 +2104,7 @@
       <c r="L8" s="2">
         <v>7.8</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="14"/>
       <c r="O8" s="5">
         <v>4</v>
       </c>
@@ -1492,7 +2116,7 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="14"/>
+      <c r="T8" s="17"/>
       <c r="V8" s="2">
         <v>4</v>
       </c>
@@ -1504,7 +2128,7 @@
       </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
       <c r="AC8" s="2">
         <v>4</v>
       </c>
@@ -1516,7 +2140,7 @@
       </c>
       <c r="AF8" s="8"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="12"/>
+      <c r="AH8" s="14"/>
       <c r="AJ8" s="2">
         <v>4</v>
       </c>
@@ -1528,7 +2152,7 @@
       </c>
       <c r="AM8" s="8"/>
       <c r="AN8" s="7"/>
-      <c r="AO8" s="12"/>
+      <c r="AO8" s="14"/>
       <c r="AQ8" s="2">
         <v>4</v>
       </c>
@@ -1540,7 +2164,7 @@
       </c>
       <c r="AT8" s="8"/>
       <c r="AU8" s="7"/>
-      <c r="AV8" s="12"/>
+      <c r="AV8" s="14"/>
       <c r="AX8" s="2">
         <v>4</v>
       </c>
@@ -1552,7 +2176,7 @@
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="7"/>
-      <c r="BC8" s="12"/>
+      <c r="BC8" s="14"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1570,7 +2194,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
@@ -1586,7 +2210,7 @@
       <c r="L9" s="2">
         <v>4.3</v>
       </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="14"/>
       <c r="O9" s="5">
         <v>5</v>
       </c>
@@ -1598,7 +2222,7 @@
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="15"/>
+      <c r="T9" s="18"/>
       <c r="V9" s="2">
         <v>5</v>
       </c>
@@ -1610,7 +2234,7 @@
       </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="14"/>
       <c r="AC9" s="2">
         <v>5</v>
       </c>
@@ -1622,7 +2246,7 @@
       </c>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="12"/>
+      <c r="AH9" s="14"/>
       <c r="AJ9" s="2">
         <v>5</v>
       </c>
@@ -1634,7 +2258,7 @@
       </c>
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
-      <c r="AO9" s="12"/>
+      <c r="AO9" s="14"/>
       <c r="AQ9" s="2">
         <v>5</v>
       </c>
@@ -1646,7 +2270,7 @@
       </c>
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
-      <c r="AV9" s="12"/>
+      <c r="AV9" s="14"/>
       <c r="AX9" s="2">
         <v>5</v>
       </c>
@@ -1658,7 +2282,7 @@
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8"/>
-      <c r="BC9" s="12"/>
+      <c r="BC9" s="14"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1672,151 +2296,151 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="O11" s="10" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="O11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="V11" s="10" t="s">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="V11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AC11" s="10" t="s">
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AC11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AJ11" s="10" t="s">
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AJ11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AQ11" s="10" t="s">
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AQ11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AX11" s="10" t="s">
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AX11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11" t="s">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="11"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11" t="s">
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="11"/>
+      <c r="Z12" s="13"/>
       <c r="AA12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="11" t="s">
+      <c r="AD12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11" t="s">
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="11"/>
+      <c r="AG12" s="13"/>
       <c r="AH12" s="4"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="11" t="s">
+      <c r="AK12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11" t="s">
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="11"/>
+      <c r="AN12" s="13"/>
       <c r="AO12" s="4"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="11" t="s">
+      <c r="AR12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11" t="s">
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AU12" s="11"/>
+      <c r="AU12" s="13"/>
       <c r="AV12" s="4"/>
       <c r="AX12" s="4"/>
-      <c r="AY12" s="11" t="s">
+      <c r="AY12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11" t="s">
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="BB12" s="11"/>
+      <c r="BB12" s="13"/>
       <c r="BC12" s="4"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
@@ -1965,7 +2589,7 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>45028</v>
       </c>
       <c r="H14" s="4">
@@ -1983,7 +2607,7 @@
       <c r="L14" s="4">
         <v>10</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="14">
         <v>45035</v>
       </c>
       <c r="O14" s="5">
@@ -2001,7 +2625,7 @@
       <c r="S14" s="2">
         <v>5.5</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="14">
         <v>45042</v>
       </c>
       <c r="V14" s="5">
@@ -2019,7 +2643,7 @@
       <c r="Z14" s="2">
         <v>12</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="14">
         <v>45049</v>
       </c>
       <c r="AC14" s="5">
@@ -2037,7 +2661,7 @@
       <c r="AG14" s="2">
         <v>12</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="14">
         <v>45061</v>
       </c>
       <c r="AJ14" s="5">
@@ -2055,7 +2679,7 @@
       <c r="AN14" s="2">
         <v>10.5</v>
       </c>
-      <c r="AO14" s="12">
+      <c r="AO14" s="14">
         <v>45063</v>
       </c>
       <c r="AQ14" s="5">
@@ -2073,7 +2697,7 @@
       <c r="AU14" s="2">
         <v>10</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="14">
         <v>45075</v>
       </c>
       <c r="AX14" s="5">
@@ -2091,7 +2715,7 @@
       <c r="BB14" s="2">
         <v>22</v>
       </c>
-      <c r="BC14" s="12">
+      <c r="BC14" s="14">
         <v>45096</v>
       </c>
     </row>
@@ -2111,7 +2735,7 @@
       <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="13"/>
       <c r="H15" s="4">
         <v>2</v>
       </c>
@@ -2127,7 +2751,7 @@
       <c r="L15" s="4">
         <v>8.5</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="13"/>
       <c r="O15" s="5">
         <v>2</v>
       </c>
@@ -2143,7 +2767,7 @@
       <c r="S15" s="2">
         <v>5.7</v>
       </c>
-      <c r="T15" s="12"/>
+      <c r="T15" s="14"/>
       <c r="V15" s="5">
         <v>2</v>
       </c>
@@ -2159,7 +2783,7 @@
       <c r="Z15" s="2">
         <v>9.5</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="14"/>
       <c r="AC15" s="5">
         <v>2</v>
       </c>
@@ -2175,7 +2799,7 @@
       <c r="AG15" s="2">
         <v>12</v>
       </c>
-      <c r="AH15" s="12"/>
+      <c r="AH15" s="14"/>
       <c r="AJ15" s="5">
         <v>2</v>
       </c>
@@ -2191,7 +2815,7 @@
       <c r="AN15" s="2">
         <v>9</v>
       </c>
-      <c r="AO15" s="12"/>
+      <c r="AO15" s="14"/>
       <c r="AQ15" s="5">
         <v>2</v>
       </c>
@@ -2207,7 +2831,7 @@
       <c r="AU15" s="2">
         <v>7</v>
       </c>
-      <c r="AV15" s="12"/>
+      <c r="AV15" s="14"/>
       <c r="AX15" s="5">
         <v>2</v>
       </c>
@@ -2223,7 +2847,7 @@
       <c r="BB15" s="2">
         <v>22.5</v>
       </c>
-      <c r="BC15" s="12"/>
+      <c r="BC15" s="14"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2241,7 +2865,7 @@
       <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="13"/>
       <c r="H16" s="4">
         <v>3</v>
       </c>
@@ -2257,7 +2881,7 @@
       <c r="L16" s="4">
         <v>9.5</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="13"/>
       <c r="O16" s="5">
         <v>3</v>
       </c>
@@ -2273,7 +2897,7 @@
       <c r="S16" s="2">
         <v>5.2</v>
       </c>
-      <c r="T16" s="12"/>
+      <c r="T16" s="14"/>
       <c r="V16" s="5">
         <v>3</v>
       </c>
@@ -2289,7 +2913,7 @@
       <c r="Z16" s="2">
         <v>10</v>
       </c>
-      <c r="AA16" s="12"/>
+      <c r="AA16" s="14"/>
       <c r="AC16" s="5">
         <v>3</v>
       </c>
@@ -2305,7 +2929,7 @@
       <c r="AG16" s="2">
         <v>14</v>
       </c>
-      <c r="AH16" s="12"/>
+      <c r="AH16" s="14"/>
       <c r="AJ16" s="5">
         <v>3</v>
       </c>
@@ -2321,7 +2945,7 @@
       <c r="AN16" s="2">
         <v>14</v>
       </c>
-      <c r="AO16" s="12"/>
+      <c r="AO16" s="14"/>
       <c r="AQ16" s="5">
         <v>3</v>
       </c>
@@ -2337,7 +2961,7 @@
       <c r="AU16" s="2">
         <v>12</v>
       </c>
-      <c r="AV16" s="12"/>
+      <c r="AV16" s="14"/>
       <c r="AX16" s="5">
         <v>3</v>
       </c>
@@ -2353,7 +2977,7 @@
       <c r="BB16" s="2">
         <v>17</v>
       </c>
-      <c r="BC16" s="12"/>
+      <c r="BC16" s="14"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2371,7 +2995,7 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="13"/>
       <c r="H17" s="4">
         <v>4</v>
       </c>
@@ -2387,7 +3011,7 @@
       <c r="L17" s="4">
         <v>8</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="13"/>
       <c r="O17" s="5">
         <v>4</v>
       </c>
@@ -2403,7 +3027,7 @@
       <c r="S17" s="2">
         <v>7.8</v>
       </c>
-      <c r="T17" s="12"/>
+      <c r="T17" s="14"/>
       <c r="V17" s="5">
         <v>4</v>
       </c>
@@ -2419,7 +3043,7 @@
       <c r="Z17" s="2">
         <v>9</v>
       </c>
-      <c r="AA17" s="12"/>
+      <c r="AA17" s="14"/>
       <c r="AC17" s="5">
         <v>4</v>
       </c>
@@ -2435,7 +3059,7 @@
       <c r="AG17" s="2">
         <v>20</v>
       </c>
-      <c r="AH17" s="12"/>
+      <c r="AH17" s="14"/>
       <c r="AJ17" s="5">
         <v>4</v>
       </c>
@@ -2451,7 +3075,7 @@
       <c r="AN17" s="2">
         <v>10</v>
       </c>
-      <c r="AO17" s="12"/>
+      <c r="AO17" s="14"/>
       <c r="AQ17" s="5">
         <v>4</v>
       </c>
@@ -2467,7 +3091,7 @@
       <c r="AU17" s="2">
         <v>12</v>
       </c>
-      <c r="AV17" s="12"/>
+      <c r="AV17" s="14"/>
       <c r="AX17" s="5">
         <v>4</v>
       </c>
@@ -2483,7 +3107,7 @@
       <c r="BB17" s="2">
         <v>26</v>
       </c>
-      <c r="BC17" s="12"/>
+      <c r="BC17" s="14"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2501,7 +3125,7 @@
       <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="H18" s="4">
         <v>5</v>
       </c>
@@ -2517,7 +3141,7 @@
       <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="13"/>
       <c r="O18" s="5">
         <v>5</v>
       </c>
@@ -2533,7 +3157,7 @@
       <c r="S18" s="2">
         <v>4.3</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="T18" s="14"/>
       <c r="V18" s="5">
         <v>5</v>
       </c>
@@ -2549,7 +3173,7 @@
       <c r="Z18" s="2">
         <v>13</v>
       </c>
-      <c r="AA18" s="12"/>
+      <c r="AA18" s="14"/>
       <c r="AC18" s="5">
         <v>5</v>
       </c>
@@ -2565,7 +3189,7 @@
       <c r="AG18" s="2">
         <v>16</v>
       </c>
-      <c r="AH18" s="12"/>
+      <c r="AH18" s="14"/>
       <c r="AJ18" s="5">
         <v>5</v>
       </c>
@@ -2581,7 +3205,7 @@
       <c r="AN18" s="2">
         <v>14</v>
       </c>
-      <c r="AO18" s="12"/>
+      <c r="AO18" s="14"/>
       <c r="AQ18" s="5">
         <v>5</v>
       </c>
@@ -2597,7 +3221,7 @@
       <c r="AU18" s="2">
         <v>10</v>
       </c>
-      <c r="AV18" s="12"/>
+      <c r="AV18" s="14"/>
       <c r="AX18" s="5">
         <v>5</v>
       </c>
@@ -2613,7 +3237,7 @@
       <c r="BB18" s="2">
         <v>30</v>
       </c>
-      <c r="BC18" s="12"/>
+      <c r="BC18" s="14"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -2624,178 +3248,178 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="V20" s="11" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="V20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AC20" s="11" t="s">
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AC20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AX20" s="11" t="s">
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AX20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H21" s="2"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="11" t="s">
+      <c r="W21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
       <c r="AA21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="11" t="s">
+      <c r="AD21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
       <c r="AH21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AY21" s="11" t="s">
+      <c r="AY21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
       <c r="BC21" s="2"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="11"/>
+      <c r="I22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="13"/>
       <c r="M22" s="2"/>
       <c r="V22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="11"/>
+      <c r="W22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="13"/>
       <c r="AA22" s="2"/>
       <c r="AC22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG22" s="11"/>
+      <c r="AD22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="13"/>
       <c r="AH22" s="2"/>
       <c r="AX22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AY22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB22" s="11"/>
+      <c r="AY22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB22" s="13"/>
       <c r="BC22" s="2"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="13">
         <v>7</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13">
         <v>2.5</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12">
+      <c r="L23" s="13"/>
+      <c r="M23" s="14">
         <v>45035</v>
       </c>
       <c r="V23" s="2">
         <v>1</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W23" s="13">
         <v>2.5</v>
       </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11">
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13">
         <v>17.5</v>
       </c>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="12">
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="14">
         <v>45049</v>
       </c>
       <c r="AC23" s="2">
         <v>1</v>
       </c>
-      <c r="AD23" s="11">
+      <c r="AD23" s="13">
         <v>13</v>
       </c>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11">
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13">
         <v>12</v>
       </c>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="12">
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="14">
         <v>45061</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
       </c>
-      <c r="AY23" s="11">
+      <c r="AY23" s="13">
         <v>20</v>
       </c>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11">
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13">
         <v>14.5</v>
       </c>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="12">
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="14">
         <v>45096</v>
       </c>
     </row>
@@ -2803,283 +3427,225 @@
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="13">
         <v>7</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13">
         <v>3.5</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
       <c r="V24" s="2">
         <v>2</v>
       </c>
-      <c r="W24" s="11">
+      <c r="W24" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11">
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13">
         <v>7</v>
       </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
       <c r="AC24" s="2">
         <v>2</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AD24" s="13">
         <v>14</v>
       </c>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11">
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13">
         <v>16</v>
       </c>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
       <c r="AX24" s="2">
         <v>2</v>
       </c>
-      <c r="AY24" s="11">
+      <c r="AY24" s="13">
         <v>12.5</v>
       </c>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11">
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13">
         <v>18</v>
       </c>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="13">
         <v>5</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="V25" s="2">
         <v>3</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="13">
         <v>11</v>
       </c>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11">
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13">
         <v>14.5</v>
       </c>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
       <c r="AC25" s="2">
         <v>3</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AD25" s="13">
         <v>9</v>
       </c>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11">
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13">
         <v>12.5</v>
       </c>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
       <c r="AX25" s="2">
         <v>3</v>
       </c>
-      <c r="AY25" s="11">
+      <c r="AY25" s="13">
         <v>21</v>
       </c>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11">
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13">
         <v>30</v>
       </c>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <v>4</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="13">
         <v>5</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
         <v>2</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="V26" s="2">
         <v>4</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="13">
         <v>8.4</v>
       </c>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11">
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13">
         <v>9.5</v>
       </c>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
       <c r="AC26" s="2">
         <v>4</v>
       </c>
-      <c r="AD26" s="11">
+      <c r="AD26" s="13">
         <v>9</v>
       </c>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11">
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13">
         <v>9</v>
       </c>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
       <c r="AX26" s="2">
         <v>4</v>
       </c>
-      <c r="AY26" s="11">
+      <c r="AY26" s="13">
         <v>10</v>
       </c>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11">
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13">
         <v>16</v>
       </c>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="13">
         <v>6</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11">
-        <v>3</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13">
+        <v>3</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
       <c r="V27" s="2">
         <v>5</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W27" s="13">
         <v>9.5</v>
       </c>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11">
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13">
         <v>10</v>
       </c>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
       <c r="AC27" s="2">
         <v>5</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AD27" s="13">
         <v>9.5</v>
       </c>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11">
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13">
         <v>10.5</v>
       </c>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
       <c r="AX27" s="2">
         <v>5</v>
       </c>
-      <c r="AY27" s="11">
+      <c r="AY27" s="13">
         <v>17</v>
       </c>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11">
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13">
         <v>23</v>
       </c>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="11"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AY22:AZ22"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="AY23:AZ23"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BC23:BC27"/>
-    <mergeCell ref="AY24:AZ24"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="AY25:AZ25"/>
-    <mergeCell ref="BA25:BB25"/>
-    <mergeCell ref="AY26:AZ26"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="AY27:AZ27"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC14:BC18"/>
-    <mergeCell ref="AX20:BC20"/>
-    <mergeCell ref="AY21:BB21"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC5:BC9"/>
-    <mergeCell ref="AX11:BC11"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV14:AV18"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV5:AV9"/>
-    <mergeCell ref="AQ11:AV11"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO14:AO18"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO5:AO9"/>
-    <mergeCell ref="AJ11:AO11"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH23:AH27"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH5:AH9"/>
-    <mergeCell ref="AC11:AH11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AH14:AH18"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA5:AA9"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="AA23:AA27"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T14:T18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="W21:Z21"/>
     <mergeCell ref="W22:X22"/>
     <mergeCell ref="Y22:Z22"/>
@@ -3102,29 +3668,87 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T5:T9"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="AA23:AA27"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH5:AH9"/>
+    <mergeCell ref="AC11:AH11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH14:AH18"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA5:AA9"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AH27"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV14:AV18"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV5:AV9"/>
+    <mergeCell ref="AQ11:AV11"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO14:AO18"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO5:AO9"/>
+    <mergeCell ref="AJ11:AO11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC14:BC18"/>
+    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="AY21:BB21"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC5:BC9"/>
+    <mergeCell ref="AX11:BC11"/>
+    <mergeCell ref="AY22:AZ22"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="AY23:AZ23"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BC23:BC27"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="AY25:AZ25"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="AY26:AZ26"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="AY27:AZ27"/>
+    <mergeCell ref="BA27:BB27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3135,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEFC4E-84B7-4578-88C2-B16F4B984A4B}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U16" sqref="U16:V23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,119 +3770,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="16" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="16" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="R2" s="24"/>
+      <c r="S2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="18" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="18" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="18" t="s">
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="18" t="s">
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="18" t="s">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="18" t="s">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="19"/>
+      <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3289,7 +3913,7 @@
       <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3944,7 @@
       <c r="V3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="20"/>
       <c r="X3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3422,16 +4046,16 @@
       <c r="W4" s="3">
         <v>45028</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -3604,16 +4228,16 @@
       <c r="W6" s="3">
         <v>45042</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -3887,16 +4511,16 @@
       <c r="W9" s="3">
         <v>45063</v>
       </c>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3968,16 +4592,16 @@
       <c r="W10" s="3">
         <v>45075</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4081,83 +4705,83 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="16" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18" t="s">
+      <c r="N14" s="24"/>
+      <c r="O14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18" t="s">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="18" t="s">
+      <c r="R14" s="24"/>
+      <c r="S14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="18" t="s">
+      <c r="T14" s="24"/>
+      <c r="U14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="19"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
@@ -4188,7 +4812,7 @@
       <c r="K15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="2" t="s">
         <v>3</v>
       </c>
@@ -4378,10 +5002,10 @@
       <c r="G18" s="2">
         <v>4</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="3">
         <v>45042</v>
       </c>
@@ -4438,10 +5062,10 @@
       <c r="G19" s="2">
         <v>8</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="3">
         <v>45049</v>
       </c>
@@ -4498,10 +5122,10 @@
       <c r="G20" s="2">
         <v>23</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="3">
         <v>45061</v>
       </c>
@@ -4558,10 +5182,10 @@
       <c r="G21" s="2">
         <v>20</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="3">
         <v>45063</v>
       </c>
@@ -4618,10 +5242,10 @@
       <c r="G22" s="2">
         <v>20</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="3">
         <v>45075</v>
       </c>
@@ -4678,10 +5302,10 @@
       <c r="G23" s="2">
         <v>9</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="3">
         <v>45096</v>
       </c>
@@ -4734,6 +5358,27 @@
     <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="L13:L15"/>
@@ -4748,29 +5393,9 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4778,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8683A4C6-A898-4D5B-9448-688FDE988F19}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4815,8 +5440,8 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -4842,10 +5467,10 @@
       <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="2">
         <v>2.5</v>
       </c>
       <c r="D2" s="2">
@@ -4864,10 +5489,10 @@
       <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="2">
         <v>2.5</v>
       </c>
       <c r="L2" s="2">
@@ -4932,10 +5557,10 @@
       <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="2">
         <v>2.5</v>
       </c>
       <c r="D4" s="2">
@@ -4954,10 +5579,10 @@
       <c r="I4" s="2">
         <v>26</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="2">
         <v>7</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="2">
         <v>2.5</v>
       </c>
       <c r="L4" s="2">
@@ -5067,10 +5692,10 @@
       <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="2">
         <v>13</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="2">
         <v>12</v>
       </c>
       <c r="D7" s="2">
@@ -5089,10 +5714,10 @@
       <c r="I7" s="2">
         <v>17</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="2">
         <v>13</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="2">
         <v>12</v>
       </c>
       <c r="L7" s="2">
@@ -5112,10 +5737,10 @@
       <c r="A8" s="2">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="2">
         <v>13</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="2">
         <v>12</v>
       </c>
       <c r="D8" s="2">
@@ -5134,10 +5759,10 @@
       <c r="I8" s="2">
         <v>29</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="2">
         <v>13</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="2">
         <v>12</v>
       </c>
       <c r="L8" s="2">
@@ -5200,6 +5825,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5208,7 +5834,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,7 +5869,7 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -5269,10 +5895,10 @@
       <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="2">
         <v>3.5</v>
       </c>
       <c r="D2" s="2">
@@ -5290,10 +5916,10 @@
       <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="2">
         <v>3.5</v>
       </c>
       <c r="L2" s="2">
@@ -5357,10 +5983,10 @@
       <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="2">
         <v>3.5</v>
       </c>
       <c r="D4" s="2">
@@ -5378,10 +6004,10 @@
       <c r="I4" s="2">
         <v>26</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="2">
         <v>7</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="2">
         <v>3.5</v>
       </c>
       <c r="L4" s="2">
@@ -5489,10 +6115,10 @@
       <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="2">
         <v>14</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="2">
         <v>16</v>
       </c>
       <c r="D7" s="2">
@@ -5510,10 +6136,10 @@
       <c r="I7" s="2">
         <v>17</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="2">
         <v>14</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="2">
         <v>16</v>
       </c>
       <c r="L7" s="2">
@@ -5533,10 +6159,10 @@
       <c r="A8" s="2">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="2">
         <v>14</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="2">
         <v>16</v>
       </c>
       <c r="D8" s="2">
@@ -5554,10 +6180,10 @@
       <c r="I8" s="2">
         <v>29</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="2">
         <v>14</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="2">
         <v>16</v>
       </c>
       <c r="L8" s="2">
@@ -5619,6 +6245,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5627,7 +6254,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5662,7 +6289,7 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -5688,10 +6315,10 @@
       <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="D2" s="2">
@@ -5709,10 +6336,10 @@
       <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="2">
         <v>5</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="L2" s="2">
@@ -5776,10 +6403,10 @@
       <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="D4" s="2">
@@ -5797,10 +6424,10 @@
       <c r="I4" s="2">
         <v>26</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="L4" s="2">
@@ -5908,10 +6535,10 @@
       <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="2">
         <v>12.5</v>
       </c>
       <c r="D7" s="2">
@@ -5929,10 +6556,10 @@
       <c r="I7" s="2">
         <v>17</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="2">
         <v>9</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="2">
         <v>12.5</v>
       </c>
       <c r="L7" s="2">
@@ -5952,10 +6579,10 @@
       <c r="A8" s="2">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="2">
         <v>12.5</v>
       </c>
       <c r="D8" s="2">
@@ -5973,10 +6600,10 @@
       <c r="I8" s="2">
         <v>29</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="2">
         <v>9</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="2">
         <v>12.5</v>
       </c>
       <c r="L8" s="2">
@@ -6038,6 +6665,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6046,7 +6674,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,7 +6709,7 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -6107,10 +6735,10 @@
       <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2">
@@ -6128,10 +6756,10 @@
       <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="2">
         <v>5</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="2">
         <v>2</v>
       </c>
       <c r="L2" s="2">
@@ -6195,10 +6823,10 @@
       <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2">
@@ -6216,16 +6844,16 @@
       <c r="I4" s="2">
         <v>26</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="12">
         <v>0</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="12">
         <v>0</v>
       </c>
       <c r="N4" s="2">
@@ -6266,10 +6894,10 @@
       <c r="K5" s="2">
         <v>9.5</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="12">
         <v>0</v>
       </c>
       <c r="N5" s="2">
@@ -6310,10 +6938,10 @@
       <c r="K6" s="2">
         <v>9</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="12">
         <v>0</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="12">
         <v>0</v>
       </c>
       <c r="N6" s="2">
@@ -6327,10 +6955,10 @@
       <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="2">
         <v>9</v>
       </c>
       <c r="D7" s="2">
@@ -6348,16 +6976,16 @@
       <c r="I7" s="2">
         <v>17</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="2">
         <v>9</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="2">
         <v>9</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="12">
         <v>0</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="12">
         <v>0</v>
       </c>
       <c r="N7" s="2">
@@ -6371,10 +6999,10 @@
       <c r="A8" s="2">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="2">
         <v>9</v>
       </c>
       <c r="D8" s="2">
@@ -6392,16 +7020,16 @@
       <c r="I8" s="2">
         <v>29</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="2">
         <v>9</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="2">
         <v>9</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="12">
         <v>0</v>
       </c>
       <c r="N8" s="2">
@@ -6442,10 +7070,10 @@
       <c r="K9" s="2">
         <v>16</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="12">
         <v>0</v>
       </c>
       <c r="N9" s="2">
@@ -6457,6 +7085,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6464,8 +7093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229ED58F-BE8F-442A-A8E3-ED258BDC97AB}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,7 +7129,7 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -6526,10 +7155,10 @@
       <c r="A2" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2">
@@ -6547,10 +7176,10 @@
       <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="2">
         <v>6</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="2">
         <v>3</v>
       </c>
       <c r="L2" s="2">
@@ -6614,10 +7243,10 @@
       <c r="A4" s="2">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
@@ -6635,16 +7264,16 @@
       <c r="I4" s="2">
         <v>26</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="2">
         <v>6</v>
       </c>
-      <c r="K4" s="24">
-        <v>3</v>
-      </c>
-      <c r="L4" s="25">
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12">
         <v>0</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="12">
         <v>0</v>
       </c>
       <c r="N4" s="2">
@@ -6685,10 +7314,10 @@
       <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="12">
         <v>0</v>
       </c>
       <c r="N5" s="2">
@@ -6729,10 +7358,10 @@
       <c r="K6" s="2">
         <v>10.5</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="12">
         <v>0</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="12">
         <v>0</v>
       </c>
       <c r="N6" s="2">
@@ -6746,10 +7375,10 @@
       <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="2">
         <v>9.5</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="2">
         <v>10.5</v>
       </c>
       <c r="D7" s="2">
@@ -6767,16 +7396,16 @@
       <c r="I7" s="2">
         <v>17</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="2">
         <v>9.5</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="2">
         <v>10.5</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="12">
         <v>0</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="12">
         <v>0</v>
       </c>
       <c r="N7" s="2">
@@ -6790,10 +7419,10 @@
       <c r="A8" s="2">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="2">
         <v>9.5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="2">
         <v>10.5</v>
       </c>
       <c r="D8" s="2">
@@ -6811,16 +7440,16 @@
       <c r="I8" s="2">
         <v>29</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="2">
         <v>9.5</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="2">
         <v>10.5</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="12">
         <v>0</v>
       </c>
       <c r="N8" s="2">
@@ -6861,10 +7490,10 @@
       <c r="K9" s="2">
         <v>23</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="12">
         <v>0</v>
       </c>
       <c r="N9" s="2">
@@ -6876,5 +7505,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>